--- a/TestData/Staging/Web_POS/Order/mode_of_payment_order_test_data.xlsx
+++ b/TestData/Staging/Web_POS/Order/mode_of_payment_order_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Staging\Web_POS\Order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zwing-qa-automation\TestData\Staging\Web_POS\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -150,10 +150,13 @@
     <t>492060824DXI</t>
   </si>
   <si>
-    <t>userone_p3</t>
+    <t>O_MOP_user2_p3</t>
   </si>
   <si>
     <t>wkgVcw</t>
+  </si>
+  <si>
+    <t>9638574108</t>
   </si>
   <si>
     <t>TC_106</t>
@@ -243,25 +246,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -274,7 +260,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -501,8 +487,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="F1">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="L1">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -904,11 +890,13 @@
       <c r="R7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -963,7 +951,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -1018,7 +1006,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -1045,7 +1033,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>28</v>
@@ -1073,7 +1061,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -1128,7 +1116,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -1183,7 +1171,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>20</v>
@@ -1238,7 +1226,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -1293,7 +1281,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>20</v>
@@ -1348,7 +1336,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>20</v>
@@ -1403,7 +1391,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>20</v>
@@ -1458,7 +1446,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
@@ -1513,7 +1501,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1536,7 +1524,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
